--- a/import/8_List_group_TQ.xlsx
+++ b/import/8_List_group_TQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC7DCE0-13E9-42CF-8076-42B08AAC230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF4BA91-84DA-427A-B156-4137CE6396C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7E145FF-6FC2-4AA3-9004-8D2A840A0A99}"/>
   </bookViews>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +227,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -304,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,24 +320,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -379,8 +359,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A62D6-6CCB-4B09-86BF-0A93B48C7732}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +743,7 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -792,7 +771,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -820,7 +799,7 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -848,7 +827,7 @@
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -876,7 +855,7 @@
       <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -904,7 +883,7 @@
       <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -932,7 +911,7 @@
       <c r="C15" s="7">
         <v>3</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -960,7 +939,7 @@
       <c r="C17" s="9">
         <v>4</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -988,7 +967,7 @@
       <c r="C19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1016,7 +995,7 @@
       <c r="C21" s="9">
         <v>4</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1044,7 +1023,7 @@
       <c r="C23" s="11">
         <v>5</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1072,7 +1051,7 @@
       <c r="C25" s="11">
         <v>5</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1100,7 +1079,7 @@
       <c r="C27" s="13">
         <v>6</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1128,7 +1107,7 @@
       <c r="C29" s="13">
         <v>6</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1156,7 +1135,7 @@
       <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1184,7 +1163,7 @@
       <c r="C33" s="15">
         <v>7</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1212,7 +1191,7 @@
       <c r="C35" s="15">
         <v>7</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1240,7 +1219,7 @@
       <c r="C37" s="17">
         <v>8</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1268,7 +1247,7 @@
       <c r="C39" s="17">
         <v>8</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1296,12 +1275,12 @@
       <c r="C41" s="17">
         <v>8</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>